--- a/Code/Results/Cases/Case_1_161/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_161/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.245963306332638</v>
+        <v>7.788933757379432</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.576711955006574</v>
+        <v>8.631882375455785</v>
       </c>
       <c r="E2">
-        <v>11.6385315586972</v>
+        <v>13.17182002723238</v>
       </c>
       <c r="F2">
-        <v>14.80277041556327</v>
+        <v>28.11950727904313</v>
       </c>
       <c r="G2">
-        <v>2.023102921300531</v>
+        <v>3.627735677940589</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.355789766887145</v>
+        <v>9.604334820673522</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>69.58283028937146</v>
+        <v>43.45304182274057</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.23170765270498</v>
+        <v>21.85006251816048</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.886932150596905</v>
+        <v>7.716409253199856</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.636873405569447</v>
+        <v>8.685057172837677</v>
       </c>
       <c r="E3">
-        <v>10.7757810663664</v>
+        <v>13.15723053124531</v>
       </c>
       <c r="F3">
-        <v>14.38098873912098</v>
+        <v>28.46207500404317</v>
       </c>
       <c r="G3">
-        <v>2.033774944626913</v>
+        <v>3.631117241975744</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.716356047691379</v>
+        <v>9.618446930900204</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>64.72716643511777</v>
+        <v>41.05712227052909</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.7684630483006</v>
+        <v>22.03613176624007</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.661044459048727</v>
+        <v>7.673359404913072</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.68176038840993</v>
+        <v>8.719861654947088</v>
       </c>
       <c r="E4">
-        <v>10.45900104655456</v>
+        <v>13.15381896006366</v>
       </c>
       <c r="F4">
-        <v>14.23215161382485</v>
+        <v>28.6873875739586</v>
       </c>
       <c r="G4">
-        <v>2.040389389171908</v>
+        <v>3.633290978846356</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.310873659996349</v>
+        <v>9.630516057771258</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>61.60494202220536</v>
+        <v>39.50539998493304</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.54120309644241</v>
+        <v>22.16101529481026</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.567728558888088</v>
+        <v>7.656207562642632</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.701844525218994</v>
+        <v>8.734585950316037</v>
       </c>
       <c r="E5">
-        <v>10.33367143390068</v>
+        <v>13.1538175995189</v>
       </c>
       <c r="F5">
-        <v>14.1970298807507</v>
+        <v>28.78292263680365</v>
       </c>
       <c r="G5">
-        <v>2.043105201505169</v>
+        <v>3.634201404761392</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.142123702462564</v>
+        <v>9.636284579453356</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>60.29600077585219</v>
+        <v>38.85306864490125</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.46217265390115</v>
+        <v>22.21454518959347</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.552160590635925</v>
+        <v>7.653383689711964</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.705282296178096</v>
+        <v>8.737063576120672</v>
       </c>
       <c r="E6">
-        <v>10.31308170313128</v>
+        <v>13.15390106482933</v>
       </c>
       <c r="F6">
-        <v>14.192669847801</v>
+        <v>28.79900939979943</v>
       </c>
       <c r="G6">
-        <v>2.043557520648065</v>
+        <v>3.634354069838296</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.113883238020333</v>
+        <v>9.637293617810165</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>60.0764084570927</v>
+        <v>38.74355162292209</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.44984444909146</v>
+        <v>22.22359213398844</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.659790936420401</v>
+        <v>7.673126480080233</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.682024242743467</v>
+        <v>8.720058041524</v>
       </c>
       <c r="E7">
-        <v>10.45729585649546</v>
+        <v>13.15381332671391</v>
       </c>
       <c r="F7">
-        <v>14.23157770092252</v>
+        <v>28.68866099845459</v>
       </c>
       <c r="G7">
-        <v>2.040425927120167</v>
+        <v>3.633303157378692</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.308612404945839</v>
+        <v>9.630590419196634</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>61.58743890051338</v>
+        <v>39.49668294228341</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.54008341400601</v>
+        <v>22.16172657980866</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.123353758102219</v>
+        <v>7.763631660396017</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.595671691674819</v>
+        <v>8.649769346509752</v>
       </c>
       <c r="E8">
-        <v>11.33591606223794</v>
+        <v>13.16563526747963</v>
       </c>
       <c r="F8">
-        <v>14.63330113279946</v>
+        <v>28.23448772853322</v>
       </c>
       <c r="G8">
-        <v>2.02677292605202</v>
+        <v>3.628881482353275</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.137806449106458</v>
+        <v>9.608490727341188</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>67.93706091014592</v>
+        <v>42.64380855154906</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.05966853872063</v>
+        <v>21.91198997598805</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.985845604522926</v>
+        <v>7.951992115157704</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.500633640223494</v>
+        <v>8.529066773574199</v>
       </c>
       <c r="E9">
-        <v>13.50629780053623</v>
+        <v>13.23303221020233</v>
       </c>
       <c r="F9">
-        <v>16.86294251807222</v>
+        <v>27.46487557626484</v>
       </c>
       <c r="G9">
-        <v>2.000232394733612</v>
+        <v>3.620978753575079</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.676295254329419</v>
+        <v>9.592413075554587</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>79.33378880399341</v>
+        <v>48.16651018787054</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.26532891038385</v>
+        <v>21.50827615869622</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.637949247777103</v>
+        <v>8.095818352167354</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.495399317804309</v>
+        <v>8.450885549833183</v>
       </c>
       <c r="E10">
-        <v>15.10220259979625</v>
+        <v>13.30970471394637</v>
       </c>
       <c r="F10">
-        <v>19.48630453184483</v>
+        <v>26.97639213712159</v>
       </c>
       <c r="G10">
-        <v>1.98043847170113</v>
+        <v>3.615633777035453</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.77773897353939</v>
+        <v>9.597544737715955</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>87.16823020999789</v>
+        <v>51.81987676883953</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.436885267764</v>
+        <v>21.26637137744965</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.959588431394138</v>
+        <v>8.162169137691409</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.614643752121101</v>
+        <v>8.417612714937261</v>
       </c>
       <c r="E11">
-        <v>15.83910210358506</v>
+        <v>13.35049797304451</v>
       </c>
       <c r="F11">
-        <v>20.77807457124054</v>
+        <v>26.77161222624883</v>
       </c>
       <c r="G11">
-        <v>1.971242314200062</v>
+        <v>3.613300786764014</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.27968060497851</v>
+        <v>9.603622036444179</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>90.64529581043611</v>
+        <v>53.39310810750335</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.457931039025</v>
+        <v>21.16869925211117</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.079342158464978</v>
+        <v>8.187405294361403</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.692922377664174</v>
+        <v>8.405344197307068</v>
       </c>
       <c r="E12">
-        <v>16.12092276389065</v>
+        <v>13.36679491359078</v>
       </c>
       <c r="F12">
-        <v>21.28267769881217</v>
+        <v>26.69663933244009</v>
       </c>
       <c r="G12">
-        <v>1.96771854601392</v>
+        <v>3.612431381346222</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.47066007994397</v>
+        <v>9.606466174103028</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>91.95270707363528</v>
+        <v>53.97604554318882</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.85058843089986</v>
+        <v>21.1335343295642</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.053640180176602</v>
+        <v>8.18196567269497</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.675974866176139</v>
+        <v>8.407971686151678</v>
       </c>
       <c r="E13">
-        <v>16.06008150828771</v>
+        <v>13.3632473286908</v>
       </c>
       <c r="F13">
-        <v>21.17328735405049</v>
+        <v>26.71267057887746</v>
       </c>
       <c r="G13">
-        <v>1.968479549949256</v>
+        <v>3.612618000392977</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.42947445596159</v>
+        <v>9.605829428075809</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>91.67148561190569</v>
+        <v>53.8510699507992</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.76573103680056</v>
+        <v>21.14102603785803</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.969480974065329</v>
+        <v>8.164243242893802</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.621044460945277</v>
+        <v>8.416596729753802</v>
       </c>
       <c r="E14">
-        <v>15.8622239933391</v>
+        <v>13.35182171939949</v>
       </c>
       <c r="F14">
-        <v>20.81926918480471</v>
+        <v>26.76539221018722</v>
       </c>
       <c r="G14">
-        <v>1.970953332316429</v>
+        <v>3.613228979372992</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.29536930422273</v>
+        <v>9.603845122011171</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>90.75302205716088</v>
+        <v>53.44132370991339</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.49010614764335</v>
+        <v>21.16576946492472</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.917668092149801</v>
+        <v>8.153401481676688</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.587649936051083</v>
+        <v>8.421922996629117</v>
       </c>
       <c r="E15">
-        <v>15.74143304962281</v>
+        <v>13.34493376869582</v>
       </c>
       <c r="F15">
-        <v>20.60448392102893</v>
+        <v>26.79802279407501</v>
       </c>
       <c r="G15">
-        <v>1.972462738803064</v>
+        <v>3.613605047676796</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.21337029708052</v>
+        <v>9.602700494940827</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>90.18933695368857</v>
+        <v>53.18867267416623</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.32210450618094</v>
+        <v>21.18116399343237</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.616637528025503</v>
+        <v>8.091498852401187</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.494715202441376</v>
+        <v>8.453106263577052</v>
       </c>
       <c r="E16">
-        <v>15.05435970825519</v>
+        <v>13.30715773126352</v>
       </c>
       <c r="F16">
-        <v>19.40395850112766</v>
+        <v>26.99013135882948</v>
       </c>
       <c r="G16">
-        <v>1.981034496617185</v>
+        <v>3.615788215286768</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.7450159826204</v>
+        <v>9.597223287536712</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>86.93950560639098</v>
+        <v>51.71527214326752</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.3709218045727</v>
+        <v>21.27300703889394</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.428212682160504</v>
+        <v>8.053744281240407</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.490977173958892</v>
+        <v>8.472824346425737</v>
       </c>
       <c r="E17">
-        <v>14.63641678505984</v>
+        <v>13.28549785573623</v>
       </c>
       <c r="F17">
-        <v>18.69337836417381</v>
+        <v>27.11249484797607</v>
       </c>
       <c r="G17">
-        <v>1.986235034378982</v>
+        <v>3.617152658196565</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.45841966160148</v>
+        <v>9.594825208039646</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>84.92565146762085</v>
+        <v>50.78862203525682</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.79665738768973</v>
+        <v>21.33254841480112</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.325892337742138</v>
+        <v>8.032117106385334</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.490632757320552</v>
+        <v>8.484381316444789</v>
       </c>
       <c r="E18">
-        <v>14.39696604591565</v>
+        <v>13.27359652317716</v>
       </c>
       <c r="F18">
-        <v>18.29381832429638</v>
+        <v>27.18451190603431</v>
       </c>
       <c r="G18">
-        <v>1.989209183598044</v>
+        <v>3.617946724561886</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.29360481720583</v>
+        <v>9.593797942624875</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>83.7589302377113</v>
+        <v>50.24728981490825</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.46938417600524</v>
+        <v>21.36795694222252</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.295378863209793</v>
+        <v>8.024810353483465</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.490810037311565</v>
+        <v>8.488331300420963</v>
       </c>
       <c r="E19">
-        <v>14.31602181512446</v>
+        <v>13.26966258835931</v>
       </c>
       <c r="F19">
-        <v>18.1600770139605</v>
+        <v>27.20917481012355</v>
       </c>
       <c r="G19">
-        <v>1.990213617970306</v>
+        <v>3.618217178150665</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.23778539978269</v>
+        <v>9.593510447112807</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>83.36236872968078</v>
+        <v>50.06257242142582</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.35906412019215</v>
+        <v>21.38014393612159</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.448416080826627</v>
+        <v>8.057754347033013</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.491184289657844</v>
+        <v>8.47070299295161</v>
       </c>
       <c r="E20">
-        <v>14.68080264207293</v>
+        <v>13.28774595785461</v>
       </c>
       <c r="F20">
-        <v>18.76806705548238</v>
+        <v>27.09929917384785</v>
       </c>
       <c r="G20">
-        <v>1.985683283814178</v>
+        <v>3.617006451811716</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.48892042037243</v>
+        <v>9.595044017956994</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>85.14087872569792</v>
+        <v>50.88812994461984</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.85746772856768</v>
+        <v>21.32608957586957</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.99425516507466</v>
+        <v>8.169445926521616</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.637125508510708</v>
+        <v>8.41405434397624</v>
       </c>
       <c r="E21">
-        <v>15.92025302252936</v>
+        <v>13.35515465989478</v>
       </c>
       <c r="F21">
-        <v>20.92282001340553</v>
+        <v>26.74983622374772</v>
       </c>
       <c r="G21">
-        <v>1.970227972617568</v>
+        <v>3.61304913969259</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.33472749569475</v>
+        <v>9.604413194778486</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>91.0230193502554</v>
+        <v>53.56202412981312</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.57088877564748</v>
+        <v>21.15845194838393</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.339138685223535</v>
+        <v>8.243077000086291</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.86888519363807</v>
+        <v>8.37896239026461</v>
       </c>
       <c r="E22">
-        <v>16.74729175855516</v>
+        <v>13.40415979325589</v>
       </c>
       <c r="F22">
-        <v>22.42222391018429</v>
+        <v>26.53647101902636</v>
       </c>
       <c r="G22">
-        <v>1.959876713551085</v>
+        <v>3.610544633427935</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.89330448437584</v>
+        <v>9.613702190892797</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>94.81537361087132</v>
+        <v>55.23488554406673</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.7266431429623</v>
+        <v>21.05952752466053</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.156114595258861</v>
+        <v>8.203728002238494</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.744031300125314</v>
+        <v>8.397514366170283</v>
       </c>
       <c r="E23">
-        <v>16.30384007284625</v>
+        <v>13.37755263012818</v>
       </c>
       <c r="F23">
-        <v>21.61299697599454</v>
+        <v>26.64895034163516</v>
       </c>
       <c r="G23">
-        <v>1.96542979266117</v>
+        <v>3.611873885782747</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.59433929571567</v>
+        <v>9.608453399844638</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>92.79479645365657</v>
+        <v>54.34889387576823</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.10598074025262</v>
+        <v>21.11133799058097</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.439286675766159</v>
+        <v>8.055941150305413</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.491085074994206</v>
+        <v>8.471661369289251</v>
       </c>
       <c r="E24">
-        <v>14.66073329635263</v>
+        <v>13.28672787389756</v>
       </c>
       <c r="F24">
-        <v>18.73427247073083</v>
+        <v>27.10525974557518</v>
       </c>
       <c r="G24">
-        <v>1.985932778180641</v>
+        <v>3.617072521714422</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.47513122902097</v>
+        <v>9.594943999741945</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>85.04360252780903</v>
+        <v>50.84316916630146</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.82996649333265</v>
+        <v>21.32900595282469</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.757884914477871</v>
+        <v>7.899992797380273</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.516623577630536</v>
+        <v>8.559880643249787</v>
       </c>
       <c r="E25">
-        <v>12.92183992281618</v>
+        <v>13.21004014287652</v>
       </c>
       <c r="F25">
-        <v>15.97900866205425</v>
+        <v>27.65980198590292</v>
       </c>
       <c r="G25">
-        <v>2.007427503838553</v>
+        <v>3.6230351474418</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.267210881346404</v>
+        <v>9.593809352815924</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>76.35393273465527</v>
+        <v>46.74298986400108</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.48892379320673</v>
+        <v>21.6080511658091</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_161/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_161/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.788933757379432</v>
+        <v>7.245963306332468</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.631882375455785</v>
+        <v>4.576711955006553</v>
       </c>
       <c r="E2">
-        <v>13.17182002723238</v>
+        <v>11.6385315586973</v>
       </c>
       <c r="F2">
-        <v>28.11950727904313</v>
+        <v>14.80277041556307</v>
       </c>
       <c r="G2">
-        <v>3.627735677940589</v>
+        <v>2.023102921300664</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.604334820673522</v>
+        <v>8.355789766887185</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>43.45304182274057</v>
+        <v>69.58283028937177</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.85006251816048</v>
+        <v>13.23170765270485</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.716409253199856</v>
+        <v>6.886932150596907</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.685057172837677</v>
+        <v>4.636873405569453</v>
       </c>
       <c r="E3">
-        <v>13.15723053124531</v>
+        <v>10.77578106636637</v>
       </c>
       <c r="F3">
-        <v>28.46207500404317</v>
+        <v>14.38098873912078</v>
       </c>
       <c r="G3">
-        <v>3.631117241975744</v>
+        <v>2.033774944626913</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.618446930900204</v>
+        <v>7.716356047691418</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>41.05712227052909</v>
+        <v>64.72716643511774</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.03613176624007</v>
+        <v>12.76846304830045</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.673359404913072</v>
+        <v>6.661044459048678</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.719861654947088</v>
+        <v>4.681760388409952</v>
       </c>
       <c r="E4">
-        <v>13.15381896006366</v>
+        <v>10.45900104655457</v>
       </c>
       <c r="F4">
-        <v>28.6873875739586</v>
+        <v>14.23215161382479</v>
       </c>
       <c r="G4">
-        <v>3.633290978846356</v>
+        <v>2.040389389171906</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.630516057771258</v>
+        <v>7.310873659996388</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>39.50539998493304</v>
+        <v>61.60494202220542</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.16101529481026</v>
+        <v>12.54120309644237</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.656207562642632</v>
+        <v>6.567728558888182</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.734585950316037</v>
+        <v>4.70184452521903</v>
       </c>
       <c r="E5">
-        <v>13.1538175995189</v>
+        <v>10.33367143390064</v>
       </c>
       <c r="F5">
-        <v>28.78292263680365</v>
+        <v>14.19702988075084</v>
       </c>
       <c r="G5">
-        <v>3.634201404761392</v>
+        <v>2.043105201505569</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.636284579453356</v>
+        <v>7.142123702462467</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>38.85306864490125</v>
+        <v>60.29600077585173</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.21454518959347</v>
+        <v>12.46217265390123</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.653383689711964</v>
+        <v>6.552160590635898</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.737063576120672</v>
+        <v>4.705282296178161</v>
       </c>
       <c r="E6">
-        <v>13.15390106482933</v>
+        <v>10.31308170313126</v>
       </c>
       <c r="F6">
-        <v>28.79900939979943</v>
+        <v>14.19266984780096</v>
       </c>
       <c r="G6">
-        <v>3.634354069838296</v>
+        <v>2.043557520648199</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.637293617810165</v>
+        <v>7.113883238020392</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>38.74355162292209</v>
+        <v>60.0764084570928</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.22359213398844</v>
+        <v>12.44984444909141</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.673126480080233</v>
+        <v>6.659790936420329</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.720058041524</v>
+        <v>4.682024242743263</v>
       </c>
       <c r="E7">
-        <v>13.15381332671391</v>
+        <v>10.45729585649549</v>
       </c>
       <c r="F7">
-        <v>28.68866099845459</v>
+        <v>14.23157770092247</v>
       </c>
       <c r="G7">
-        <v>3.633303157378692</v>
+        <v>2.0404259271203</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.630590419196634</v>
+        <v>7.308612404945913</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>39.49668294228341</v>
+        <v>61.58743890051368</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.16172657980866</v>
+        <v>12.54008341400599</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.763631660396017</v>
+        <v>7.123353758102194</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.649769346509752</v>
+        <v>4.595671691674696</v>
       </c>
       <c r="E8">
-        <v>13.16563526747963</v>
+        <v>11.33591606223782</v>
       </c>
       <c r="F8">
-        <v>28.23448772853322</v>
+        <v>14.63330113279967</v>
       </c>
       <c r="G8">
-        <v>3.628881482353275</v>
+        <v>2.026772926051886</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.608490727341188</v>
+        <v>8.137806449106355</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>42.64380855154906</v>
+        <v>67.9370609101455</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.91198997598805</v>
+        <v>13.05966853872076</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.951992115157704</v>
+        <v>7.985845604522948</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.529066773574199</v>
+        <v>4.500633640223458</v>
       </c>
       <c r="E9">
-        <v>13.23303221020233</v>
+        <v>13.50629780053625</v>
       </c>
       <c r="F9">
-        <v>27.46487557626484</v>
+        <v>16.86294251807213</v>
       </c>
       <c r="G9">
-        <v>3.620978753575079</v>
+        <v>2.000232394733612</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.592413075554587</v>
+        <v>9.67629525432945</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>48.16651018787054</v>
+        <v>79.33378880399336</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.50827615869622</v>
+        <v>15.26532891038376</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.095818352167354</v>
+        <v>8.637949247777065</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.450885549833183</v>
+        <v>4.495399317804313</v>
       </c>
       <c r="E10">
-        <v>13.30970471394637</v>
+        <v>15.10220259979635</v>
       </c>
       <c r="F10">
-        <v>26.97639213712159</v>
+        <v>19.48630453184482</v>
       </c>
       <c r="G10">
-        <v>3.615633777035453</v>
+        <v>1.980438471701262</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.597544737715955</v>
+        <v>10.77773897353939</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>51.81987676883953</v>
+        <v>87.16823020999831</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.26637137744965</v>
+        <v>17.43688526776402</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.162169137691409</v>
+        <v>8.959588431394186</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.417612714937261</v>
+        <v>4.614643752120985</v>
       </c>
       <c r="E11">
-        <v>13.35049797304451</v>
+        <v>15.83910210358468</v>
       </c>
       <c r="F11">
-        <v>26.77161222624883</v>
+        <v>20.77807457124059</v>
       </c>
       <c r="G11">
-        <v>3.613300786764014</v>
+        <v>1.971242314199792</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.603622036444179</v>
+        <v>11.27968060497828</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>53.39310810750335</v>
+        <v>90.64529581043512</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.16869925211117</v>
+        <v>18.45793103902498</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.187405294361403</v>
+        <v>9.079342158464978</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.405344197307068</v>
+        <v>4.692922377664206</v>
       </c>
       <c r="E12">
-        <v>13.36679491359078</v>
+        <v>16.12092276389074</v>
       </c>
       <c r="F12">
-        <v>26.69663933244009</v>
+        <v>21.28267769881214</v>
       </c>
       <c r="G12">
-        <v>3.612431381346222</v>
+        <v>1.967718546014051</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.606466174103028</v>
+        <v>11.47066007994404</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>53.97604554318882</v>
+        <v>91.95270707363554</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.1335343295642</v>
+        <v>18.85058843089985</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.18196567269497</v>
+        <v>9.053640180176645</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.407971686151678</v>
+        <v>4.675974866176163</v>
       </c>
       <c r="E13">
-        <v>13.3632473286908</v>
+        <v>16.06008150828773</v>
       </c>
       <c r="F13">
-        <v>26.71267057887746</v>
+        <v>21.17328735405055</v>
       </c>
       <c r="G13">
-        <v>3.612618000392977</v>
+        <v>1.968479549949522</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.605829428075809</v>
+        <v>11.42947445596159</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>53.8510699507992</v>
+        <v>91.67148561190581</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.14102603785803</v>
+        <v>18.76573103680059</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.164243242893802</v>
+        <v>8.969480974065288</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.416596729753802</v>
+        <v>4.621044460945365</v>
       </c>
       <c r="E14">
-        <v>13.35182171939949</v>
+        <v>15.86222399333935</v>
       </c>
       <c r="F14">
-        <v>26.76539221018722</v>
+        <v>20.8192691848047</v>
       </c>
       <c r="G14">
-        <v>3.613228979372992</v>
+        <v>1.970953332316163</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.603845122011171</v>
+        <v>11.29536930422286</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>53.44132370991339</v>
+        <v>90.7530220571616</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.16576946492472</v>
+        <v>18.49010614764333</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.153401481676688</v>
+        <v>8.917668092149816</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.421922996629117</v>
+        <v>4.587649936051085</v>
       </c>
       <c r="E15">
-        <v>13.34493376869582</v>
+        <v>15.7414330496228</v>
       </c>
       <c r="F15">
-        <v>26.79802279407501</v>
+        <v>20.60448392102912</v>
       </c>
       <c r="G15">
-        <v>3.613605047676796</v>
+        <v>1.972462738803464</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.602700494940827</v>
+        <v>11.2133702970805</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>53.18867267416623</v>
+        <v>90.18933695368844</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.18116399343237</v>
+        <v>18.32210450618106</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.091498852401187</v>
+        <v>8.616637528025455</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.453106263577052</v>
+        <v>4.494715202441263</v>
       </c>
       <c r="E16">
-        <v>13.30715773126352</v>
+        <v>15.05435970825514</v>
       </c>
       <c r="F16">
-        <v>26.99013135882948</v>
+        <v>19.40395850112787</v>
       </c>
       <c r="G16">
-        <v>3.615788215286768</v>
+        <v>1.981034496616917</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.597223287536712</v>
+        <v>10.74501598262033</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>51.71527214326752</v>
+        <v>86.93950560639068</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.27300703889394</v>
+        <v>17.3709218045728</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.053744281240407</v>
+        <v>8.428212682160643</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.472824346425737</v>
+        <v>4.490977173958885</v>
       </c>
       <c r="E17">
-        <v>13.28549785573623</v>
+        <v>14.63641678505962</v>
       </c>
       <c r="F17">
-        <v>27.11249484797607</v>
+        <v>18.69337836417398</v>
       </c>
       <c r="G17">
-        <v>3.617152658196565</v>
+        <v>1.98623503437858</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.594825208039646</v>
+        <v>10.45841966160135</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>50.78862203525682</v>
+        <v>84.92565146762006</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.33254841480112</v>
+        <v>16.79665738768984</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.032117106385334</v>
+        <v>8.32589233774209</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.484381316444789</v>
+        <v>4.490632757320508</v>
       </c>
       <c r="E18">
-        <v>13.27359652317716</v>
+        <v>14.3969660459156</v>
       </c>
       <c r="F18">
-        <v>27.18451190603431</v>
+        <v>18.29381832429643</v>
       </c>
       <c r="G18">
-        <v>3.617946724561886</v>
+        <v>1.989209183597909</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.593797942624875</v>
+        <v>10.29360481720582</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>50.24728981490825</v>
+        <v>83.75893023771111</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.36795694222252</v>
+        <v>16.46938417600528</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.024810353483465</v>
+        <v>8.295378863209724</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.488331300420963</v>
+        <v>4.490810037311602</v>
       </c>
       <c r="E19">
-        <v>13.26966258835931</v>
+        <v>14.31602181512465</v>
       </c>
       <c r="F19">
-        <v>27.20917481012355</v>
+        <v>18.16007701396049</v>
       </c>
       <c r="G19">
-        <v>3.618217178150665</v>
+        <v>1.990213617970306</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.593510447112807</v>
+        <v>10.2377853997828</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>50.06257242142582</v>
+        <v>83.36236872968126</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.38014393612159</v>
+        <v>16.35906412019216</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.057754347033013</v>
+        <v>8.448416080826645</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.47070299295161</v>
+        <v>4.491184289657784</v>
       </c>
       <c r="E20">
-        <v>13.28774595785461</v>
+        <v>14.68080264207278</v>
       </c>
       <c r="F20">
-        <v>27.09929917384785</v>
+        <v>18.76806705548238</v>
       </c>
       <c r="G20">
-        <v>3.617006451811716</v>
+        <v>1.985683283814043</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.595044017956994</v>
+        <v>10.48892042037231</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>50.88812994461984</v>
+        <v>85.14087872569753</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.32608957586957</v>
+        <v>16.85746772856763</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.169445926521616</v>
+        <v>8.99425516507465</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.41405434397624</v>
+        <v>4.637125508510724</v>
       </c>
       <c r="E21">
-        <v>13.35515465989478</v>
+        <v>15.92025302252935</v>
       </c>
       <c r="F21">
-        <v>26.74983622374772</v>
+        <v>20.92282001340557</v>
       </c>
       <c r="G21">
-        <v>3.61304913969259</v>
+        <v>1.97022797261784</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.604413194778486</v>
+        <v>11.33472749569476</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>53.56202412981312</v>
+        <v>91.02301935025542</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.15845194838393</v>
+        <v>18.57088877564751</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.243077000086291</v>
+        <v>9.33913868522332</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.37896239026461</v>
+        <v>4.868885193638116</v>
       </c>
       <c r="E22">
-        <v>13.40415979325589</v>
+        <v>16.74729175855521</v>
       </c>
       <c r="F22">
-        <v>26.53647101902636</v>
+        <v>22.42222391018421</v>
       </c>
       <c r="G22">
-        <v>3.610544633427935</v>
+        <v>1.959876713551087</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.613702190892797</v>
+        <v>11.89330448437586</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>55.23488554406673</v>
+        <v>94.81537361087153</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.05952752466053</v>
+        <v>19.72664314296223</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.203728002238494</v>
+        <v>9.156114595258922</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.397514366170283</v>
+        <v>4.74403130012528</v>
       </c>
       <c r="E23">
-        <v>13.37755263012818</v>
+        <v>16.30384007284616</v>
       </c>
       <c r="F23">
-        <v>26.64895034163516</v>
+        <v>21.61299697599475</v>
       </c>
       <c r="G23">
-        <v>3.611873885782747</v>
+        <v>1.965429792660903</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.608453399844638</v>
+        <v>11.59433929571559</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>54.34889387576823</v>
+        <v>92.79479645365598</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.11133799058097</v>
+        <v>19.10598074025271</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.055941150305413</v>
+        <v>8.439286675766118</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.471661369289251</v>
+        <v>4.491085074994206</v>
       </c>
       <c r="E24">
-        <v>13.28672787389756</v>
+        <v>14.66073329635254</v>
       </c>
       <c r="F24">
-        <v>27.10525974557518</v>
+        <v>18.73427247073085</v>
       </c>
       <c r="G24">
-        <v>3.617072521714422</v>
+        <v>1.985932778180642</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.594943999741945</v>
+        <v>10.47513122902093</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>50.84316916630146</v>
+        <v>85.04360252780889</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.32900595282469</v>
+        <v>16.8299664933327</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.899992797380273</v>
+        <v>7.757884914478015</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.559880643249787</v>
+        <v>4.516623577630491</v>
       </c>
       <c r="E25">
-        <v>13.21004014287652</v>
+        <v>12.92183992281616</v>
       </c>
       <c r="F25">
-        <v>27.65980198590292</v>
+        <v>15.97900866205434</v>
       </c>
       <c r="G25">
-        <v>3.6230351474418</v>
+        <v>2.007427503838688</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.593809352815924</v>
+        <v>9.267210881346379</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>46.74298986400108</v>
+        <v>76.35393273465526</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.6080511658091</v>
+        <v>14.48892379320682</v>
       </c>
     </row>
   </sheetData>
